--- a/Training_Data.xlsx
+++ b/Training_Data.xlsx
@@ -1,34 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uctcloud-my.sharepoint.com/personal/lgkkri001_myuct_ac_za/Documents/A_MSc_Simple HX Network/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_5791FFAED10030A6467AE45A9EB3C78074525D92" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B27ED00-28F7-4C64-9E31-37D25E8C204F}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -143,8 +124,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,26 +177,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -262,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,27 +266,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -346,24 +300,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -539,21 +475,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P6" sqref="N6:P6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="14" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,7 +589,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -704,49 +633,49 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>0.99999999366260806</v>
+        <v>0.9999999998517366</v>
       </c>
       <c r="P2">
-        <v>0.99999999366410064</v>
+        <v>0.9999999998531801</v>
       </c>
       <c r="Q2">
-        <v>20002999.999980211</v>
+        <v>20002999.99999954</v>
       </c>
       <c r="R2">
-        <v>20001999.999980211</v>
+        <v>20001999.99999954</v>
       </c>
       <c r="S2">
-        <v>20000999.999990109</v>
+        <v>20000999.99999977</v>
       </c>
       <c r="T2">
         <v>20000000</v>
       </c>
       <c r="U2">
-        <v>789235.10640591476</v>
+        <v>789235.1064058846</v>
       </c>
       <c r="V2">
-        <v>915985.2497378668</v>
+        <v>915985.2593332215</v>
       </c>
       <c r="W2">
-        <v>956727.01050780294</v>
+        <v>956727.0286293968</v>
       </c>
       <c r="X2">
-        <v>969979.38242074219</v>
+        <v>969979.3779034525</v>
       </c>
       <c r="Y2">
         <v>5</v>
       </c>
       <c r="Z2">
-        <v>2.5000000186741609</v>
+        <v>2.500000000432172</v>
       </c>
       <c r="AA2">
-        <v>2.5000000186741609</v>
+        <v>2.500000000432172</v>
       </c>
       <c r="AB2">
-        <v>132575.00007290169</v>
+        <v>132575.0000016871</v>
       </c>
       <c r="AC2">
-        <v>107575.0000729017</v>
+        <v>107575.0000016871</v>
       </c>
       <c r="AD2">
         <v>101325</v>
@@ -755,20 +684,17 @@
         <v>101325</v>
       </c>
       <c r="AF2">
-        <v>918999.58614966145</v>
+        <v>918999.5861496417</v>
       </c>
       <c r="AG2">
-        <v>916349.10109901056</v>
+        <v>916349.1160479402</v>
       </c>
       <c r="AH2">
-        <v>900052.39706500783</v>
+        <v>900052.4083350284</v>
       </c>
       <c r="AI2">
-        <v>865649.04785318486</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AB5" s="2"/>
+        <v>865649.0549721529</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Training_Data.xlsx
+++ b/Training_Data.xlsx
@@ -633,49 +633,49 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>0.9999999998517366</v>
+        <v>0.9999999999971307</v>
       </c>
       <c r="P2">
-        <v>0.9999999998531801</v>
+        <v>0.9999999999980931</v>
       </c>
       <c r="Q2">
-        <v>20002999.99999954</v>
+        <v>20002999.99999999</v>
       </c>
       <c r="R2">
-        <v>20001999.99999954</v>
+        <v>20001999.99999999</v>
       </c>
       <c r="S2">
-        <v>20000999.99999977</v>
+        <v>20001000</v>
       </c>
       <c r="T2">
         <v>20000000</v>
       </c>
       <c r="U2">
-        <v>789235.1064058846</v>
+        <v>789235.1064058838</v>
       </c>
       <c r="V2">
-        <v>915985.2593332215</v>
+        <v>915985.2595584966</v>
       </c>
       <c r="W2">
-        <v>956727.0286293968</v>
+        <v>956727.0290548364</v>
       </c>
       <c r="X2">
-        <v>969979.3779034525</v>
+        <v>969979.3777974534</v>
       </c>
       <c r="Y2">
         <v>5</v>
       </c>
       <c r="Z2">
-        <v>2.500000000432172</v>
+        <v>2.500000000004529</v>
       </c>
       <c r="AA2">
-        <v>2.500000000432172</v>
+        <v>2.500000000004529</v>
       </c>
       <c r="AB2">
-        <v>132575.0000016871</v>
+        <v>132575.0000000177</v>
       </c>
       <c r="AC2">
-        <v>107575.0000016871</v>
+        <v>107575.0000000177</v>
       </c>
       <c r="AD2">
         <v>101325</v>
@@ -684,16 +684,16 @@
         <v>101325</v>
       </c>
       <c r="AF2">
-        <v>918999.5861496417</v>
+        <v>918999.5861496411</v>
       </c>
       <c r="AG2">
-        <v>916349.1160479402</v>
+        <v>916349.1163985319</v>
       </c>
       <c r="AH2">
-        <v>900052.4083350284</v>
+        <v>900052.4085994975</v>
       </c>
       <c r="AI2">
-        <v>865649.0549721529</v>
+        <v>865649.0551391551</v>
       </c>
     </row>
   </sheetData>

--- a/Training_Data.xlsx
+++ b/Training_Data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uctcloud-my.sharepoint.com/personal/lgkkri001_myuct_ac_za/Documents/A_MSc_Simple HX Network/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_59FD7DA3D10030A6467AE4D4D632DEEC75528D9C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30D3BD63-F33E-4BCB-B54C-73EF5F570AA2}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -124,8 +130,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +194,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -234,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,9 +280,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,6 +332,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,14 +525,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,111 +641,111 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20000000</v>
+        <v>19979382.17450935</v>
       </c>
       <c r="C2">
-        <v>623.15</v>
+        <v>617.23761494859673</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.96372302840079671</v>
       </c>
       <c r="E2">
-        <v>101325</v>
+        <v>81493.378918601142</v>
       </c>
       <c r="F2">
-        <v>773.15</v>
+        <v>752.43916042029139</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>4.977148971513798</v>
       </c>
       <c r="H2">
-        <v>0.8</v>
+        <v>0.77410149382071514</v>
       </c>
       <c r="I2">
-        <v>0.75</v>
+        <v>0.79572239690916902</v>
       </c>
       <c r="J2">
-        <v>0.7</v>
+        <v>0.6693589797403684</v>
       </c>
       <c r="K2">
-        <v>1000</v>
+        <v>886.68577143515631</v>
       </c>
       <c r="L2">
-        <v>1000</v>
+        <v>1167.522837444762</v>
       </c>
       <c r="M2">
-        <v>1000</v>
+        <v>1032.9487319997199</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.96372302840079671</v>
       </c>
       <c r="O2">
-        <v>0.9999999999971307</v>
+        <v>0.96372302840027635</v>
       </c>
       <c r="P2">
-        <v>0.9999999999980931</v>
+        <v>0.96372302839900503</v>
       </c>
       <c r="Q2">
-        <v>20002999.99999999</v>
+        <v>19982249.40916856</v>
       </c>
       <c r="R2">
-        <v>20001999.99999999</v>
+        <v>19981290.045560379</v>
       </c>
       <c r="S2">
-        <v>20001000</v>
+        <v>19980205.694626711</v>
       </c>
       <c r="T2">
-        <v>20000000</v>
+        <v>19979382.17450935</v>
       </c>
       <c r="U2">
-        <v>789235.1064058838</v>
+        <v>781999.63778310828</v>
       </c>
       <c r="V2">
-        <v>915985.2595584966</v>
+        <v>891474.28680362424</v>
       </c>
       <c r="W2">
-        <v>956727.0290548364</v>
+        <v>934505.23650035192</v>
       </c>
       <c r="X2">
-        <v>969979.3777974534</v>
+        <v>944800.79587955796</v>
       </c>
       <c r="Y2">
-        <v>5</v>
+        <v>4.977148971513798</v>
       </c>
       <c r="Z2">
-        <v>2.500000000004529</v>
+        <v>2.4124063996667511</v>
       </c>
       <c r="AA2">
-        <v>2.500000000004529</v>
+        <v>2.564742571856037</v>
       </c>
       <c r="AB2">
-        <v>132575.0000000177</v>
+        <v>110253.0074575888</v>
       </c>
       <c r="AC2">
-        <v>107575.0000000177</v>
+        <v>88288.016989655182</v>
       </c>
       <c r="AD2">
-        <v>101325</v>
+        <v>81493.378918601142</v>
       </c>
       <c r="AE2">
-        <v>101325</v>
+        <v>81493.378918601142</v>
       </c>
       <c r="AF2">
-        <v>918999.5861496411</v>
+        <v>896418.62872027443</v>
       </c>
       <c r="AG2">
-        <v>916349.1163985319</v>
+        <v>894425.10436861473</v>
       </c>
       <c r="AH2">
-        <v>900052.4085994975</v>
+        <v>877234.83445257659</v>
       </c>
       <c r="AI2">
-        <v>865649.0551391551</v>
+        <v>853289.10832661181</v>
       </c>
     </row>
   </sheetData>

--- a/Training_Data.xlsx
+++ b/Training_Data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uctcloud-my.sharepoint.com/personal/lgkkri001_myuct_ac_za/Documents/A_MSc_Simple HX Network/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_59FD7DA3D10030A6467AE4D4D632DEEC75528D9C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30D3BD63-F33E-4BCB-B54C-73EF5F570AA2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -130,8 +124,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,14 +188,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -248,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,27 +266,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,24 +300,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -525,16 +475,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,111 +589,111 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19979382.17450935</v>
+        <v>20761405.5539612</v>
       </c>
       <c r="C2">
-        <v>617.23761494859673</v>
+        <v>551.206641529026</v>
       </c>
       <c r="D2">
-        <v>0.96372302840079671</v>
+        <v>3.60972684739767</v>
       </c>
       <c r="E2">
-        <v>81493.378918601142</v>
+        <v>66795.23987188051</v>
       </c>
       <c r="F2">
-        <v>752.43916042029139</v>
+        <v>724.5380686065409</v>
       </c>
       <c r="G2">
-        <v>4.977148971513798</v>
+        <v>10.2114942056355</v>
       </c>
       <c r="H2">
-        <v>0.77410149382071514</v>
+        <v>0.705692085704497</v>
       </c>
       <c r="I2">
-        <v>0.79572239690916902</v>
+        <v>0.742676942336829</v>
       </c>
       <c r="J2">
-        <v>0.6693589797403684</v>
+        <v>0.739510964442611</v>
       </c>
       <c r="K2">
-        <v>886.68577143515631</v>
+        <v>729.566703379191</v>
       </c>
       <c r="L2">
-        <v>1167.522837444762</v>
+        <v>769.194764159963</v>
       </c>
       <c r="M2">
-        <v>1032.9487319997199</v>
+        <v>712.408008166646</v>
       </c>
       <c r="N2">
-        <v>0.96372302840079671</v>
+        <v>3.60972684739767</v>
       </c>
       <c r="O2">
-        <v>0.96372302840027635</v>
+        <v>3.609726847393888</v>
       </c>
       <c r="P2">
-        <v>0.96372302839900503</v>
+        <v>3.609726847393936</v>
       </c>
       <c r="Q2">
-        <v>19982249.40916856</v>
+        <v>20790217.37506654</v>
       </c>
       <c r="R2">
-        <v>19981290.045560379</v>
+        <v>20780934.60759401</v>
       </c>
       <c r="S2">
-        <v>19980205.694626711</v>
+        <v>20770911.90142715</v>
       </c>
       <c r="T2">
-        <v>19979382.17450935</v>
+        <v>20761405.5539612</v>
       </c>
       <c r="U2">
-        <v>781999.63778310828</v>
+        <v>698314.0161225691</v>
       </c>
       <c r="V2">
-        <v>891474.28680362424</v>
+        <v>852762.0834940161</v>
       </c>
       <c r="W2">
-        <v>934505.23650035192</v>
+        <v>893174.0715335517</v>
       </c>
       <c r="X2">
-        <v>944800.79587955796</v>
+        <v>906971.4579796309</v>
       </c>
       <c r="Y2">
-        <v>4.977148971513798</v>
+        <v>10.2114942056355</v>
       </c>
       <c r="Z2">
-        <v>2.4124063996667511</v>
+        <v>5.00786480239524</v>
       </c>
       <c r="AA2">
-        <v>2.564742571856037</v>
+        <v>5.203629403252695</v>
       </c>
       <c r="AB2">
-        <v>110253.0074575888</v>
+        <v>162160.9385204538</v>
       </c>
       <c r="AC2">
-        <v>88288.016989655182</v>
+        <v>86085.65220273692</v>
       </c>
       <c r="AD2">
-        <v>81493.378918601142</v>
+        <v>66795.23987188051</v>
       </c>
       <c r="AE2">
-        <v>81493.378918601142</v>
+        <v>66795.23987188051</v>
       </c>
       <c r="AF2">
-        <v>896418.62872027443</v>
+        <v>866177.3057553485</v>
       </c>
       <c r="AG2">
-        <v>894425.10436861473</v>
+        <v>861299.9787655817</v>
       </c>
       <c r="AH2">
-        <v>877234.83445257659</v>
+        <v>832170.5505682746</v>
       </c>
       <c r="AI2">
-        <v>853289.10832661181</v>
+        <v>754160.2706676701</v>
       </c>
     </row>
   </sheetData>
